--- a/outputs/c/_dWashL_both.xlsx
+++ b/outputs/c/_dWashL_both.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="132">
   <si>
     <t>participant</t>
   </si>
@@ -48,9 +48,6 @@
     <t>place_2</t>
   </si>
   <si>
-    <t>activity</t>
-  </si>
-  <si>
     <t>activity 2</t>
   </si>
   <si>
@@ -408,10 +405,16 @@
     <t>dWashL</t>
   </si>
   <si>
-    <t>uniq</t>
-  </si>
-  <si>
     <t>comments</t>
+  </si>
+  <si>
+    <t>activity 1</t>
+  </si>
+  <si>
+    <t>type_1</t>
+  </si>
+  <si>
+    <t>type_2</t>
   </si>
 </sst>
 </file>
@@ -739,7 +742,7 @@
   <dimension ref="A1:Y57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="M1" sqref="M1:N1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -778,19 +781,19 @@
         <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
       <c r="M1" s="1" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
       <c r="N1" s="1" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="Q1" t="s">
         <v>0</v>
@@ -799,7 +802,7 @@
         <v>1</v>
       </c>
       <c r="S1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="T1" t="s">
         <v>2</v>
@@ -817,7 +820,7 @@
         <v>6</v>
       </c>
       <c r="Y1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -828,7 +831,7 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>142</v>
@@ -840,19 +843,19 @@
         <v>1222</v>
       </c>
       <c r="G2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="I2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="M2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -861,7 +864,7 @@
         <v>1</v>
       </c>
       <c r="R2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S2">
         <v>0</v>
@@ -876,13 +879,13 @@
         <v>76</v>
       </c>
       <c r="W2" t="s">
+        <v>62</v>
+      </c>
+      <c r="X2" t="s">
         <v>63</v>
       </c>
-      <c r="X2" t="s">
-        <v>64</v>
-      </c>
       <c r="Y2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -893,7 +896,7 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D3" s="1">
         <v>172</v>
@@ -905,19 +908,19 @@
         <v>1454</v>
       </c>
       <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="K3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -926,7 +929,7 @@
         <v>4</v>
       </c>
       <c r="R3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S3">
         <v>0</v>
@@ -941,13 +944,13 @@
         <v>1454</v>
       </c>
       <c r="W3" t="s">
+        <v>15</v>
+      </c>
+      <c r="X3" t="s">
         <v>16</v>
       </c>
-      <c r="X3" t="s">
-        <v>17</v>
-      </c>
       <c r="Y3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -958,7 +961,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" s="1">
         <v>193</v>
@@ -970,19 +973,19 @@
         <v>2260</v>
       </c>
       <c r="G4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
       <c r="I4" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -991,7 +994,7 @@
         <v>6</v>
       </c>
       <c r="R4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S4">
         <v>0</v>
@@ -1006,13 +1009,13 @@
         <v>2260</v>
       </c>
       <c r="W4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" t="s">
         <v>20</v>
       </c>
-      <c r="X4" t="s">
-        <v>21</v>
-      </c>
       <c r="Y4" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1023,7 +1026,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D5" s="1">
         <v>436</v>
@@ -1035,19 +1038,19 @@
         <v>3234</v>
       </c>
       <c r="G5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="I5" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="M5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -1056,7 +1059,7 @@
         <v>9</v>
       </c>
       <c r="R5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S5">
         <v>0</v>
@@ -1071,13 +1074,13 @@
         <v>3234</v>
       </c>
       <c r="W5" t="s">
+        <v>21</v>
+      </c>
+      <c r="X5" t="s">
         <v>22</v>
       </c>
-      <c r="X5" t="s">
-        <v>23</v>
-      </c>
       <c r="Y5" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1088,7 +1091,7 @@
         <v>11</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" s="1">
         <v>285</v>
@@ -1100,19 +1103,19 @@
         <v>2922</v>
       </c>
       <c r="G6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
-      </c>
       <c r="I6" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1121,7 +1124,7 @@
         <v>11</v>
       </c>
       <c r="R6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S6">
         <v>0</v>
@@ -1136,13 +1139,13 @@
         <v>2922</v>
       </c>
       <c r="W6" t="s">
+        <v>23</v>
+      </c>
+      <c r="X6" t="s">
         <v>24</v>
       </c>
-      <c r="X6" t="s">
-        <v>25</v>
-      </c>
       <c r="Y6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1153,7 +1156,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="1">
         <v>150</v>
@@ -1165,19 +1168,19 @@
         <v>1700</v>
       </c>
       <c r="G7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="H7" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="I7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1186,7 +1189,7 @@
         <v>12</v>
       </c>
       <c r="R7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S7">
         <v>0</v>
@@ -1201,13 +1204,13 @@
         <v>1700</v>
       </c>
       <c r="W7" t="s">
+        <v>25</v>
+      </c>
+      <c r="X7" t="s">
         <v>26</v>
       </c>
-      <c r="X7" t="s">
-        <v>27</v>
-      </c>
       <c r="Y7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1218,7 +1221,7 @@
         <v>14</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D8" s="1">
         <v>425</v>
@@ -1230,19 +1233,19 @@
         <v>3582</v>
       </c>
       <c r="G8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>29</v>
-      </c>
       <c r="I8" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -1251,7 +1254,7 @@
         <v>14</v>
       </c>
       <c r="R8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S8">
         <v>0</v>
@@ -1266,13 +1269,13 @@
         <v>3582</v>
       </c>
       <c r="W8" t="s">
+        <v>27</v>
+      </c>
+      <c r="X8" t="s">
         <v>28</v>
       </c>
-      <c r="X8" t="s">
-        <v>29</v>
-      </c>
       <c r="Y8" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="9" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1283,16 +1286,16 @@
         <v>17</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I9" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1301,7 +1304,7 @@
         <v>18</v>
       </c>
       <c r="R9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S9">
         <v>0</v>
@@ -1316,13 +1319,13 @@
         <v>392</v>
       </c>
       <c r="W9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="X9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="Y9" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1333,7 +1336,7 @@
         <v>18</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D10" s="1">
         <v>187</v>
@@ -1345,19 +1348,19 @@
         <v>760</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="H10" s="1" t="s">
-        <v>31</v>
-      </c>
       <c r="I10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K10" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -1366,7 +1369,7 @@
         <v>19</v>
       </c>
       <c r="R10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="S10">
         <v>0</v>
@@ -1381,13 +1384,13 @@
         <v>2434</v>
       </c>
       <c r="W10" t="s">
+        <v>31</v>
+      </c>
+      <c r="X10" t="s">
         <v>32</v>
       </c>
-      <c r="X10" t="s">
-        <v>33</v>
-      </c>
       <c r="Y10" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="11" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1398,7 +1401,7 @@
         <v>19</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D11" s="1">
         <v>350</v>
@@ -1410,19 +1413,19 @@
         <v>2434</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="I11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K11" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -1431,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="R11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S11">
         <v>0</v>
@@ -1446,13 +1449,13 @@
         <v>2888</v>
       </c>
       <c r="W11" t="s">
+        <v>77</v>
+      </c>
+      <c r="X11" t="s">
         <v>78</v>
       </c>
-      <c r="X11" t="s">
-        <v>79</v>
-      </c>
       <c r="Y11" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="12" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1463,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D12" s="1">
         <v>356</v>
@@ -1475,19 +1478,19 @@
         <v>3190</v>
       </c>
       <c r="G12" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>36</v>
-      </c>
       <c r="I12" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K12" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -1496,7 +1499,7 @@
         <v>2</v>
       </c>
       <c r="R12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -1511,13 +1514,13 @@
         <v>40</v>
       </c>
       <c r="W12" t="s">
+        <v>79</v>
+      </c>
+      <c r="X12" t="s">
         <v>80</v>
       </c>
-      <c r="X12" t="s">
-        <v>81</v>
-      </c>
       <c r="Y12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="13" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1528,7 +1531,7 @@
         <v>2</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1">
         <v>32</v>
@@ -1540,19 +1543,19 @@
         <v>318</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H13" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="I13" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K13" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1561,7 +1564,7 @@
         <v>3</v>
       </c>
       <c r="R13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S13">
         <v>0</v>
@@ -1576,13 +1579,13 @@
         <v>664</v>
       </c>
       <c r="W13" t="s">
+        <v>38</v>
+      </c>
+      <c r="X13" t="s">
         <v>39</v>
       </c>
-      <c r="X13" t="s">
-        <v>40</v>
-      </c>
       <c r="Y13" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1593,7 +1596,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
         <v>20</v>
@@ -1605,19 +1608,19 @@
         <v>664</v>
       </c>
       <c r="G14" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="1" t="s">
-        <v>40</v>
-      </c>
       <c r="I14" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K14" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M14" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1626,7 +1629,7 @@
         <v>4</v>
       </c>
       <c r="R14" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S14">
         <v>0</v>
@@ -1641,13 +1644,13 @@
         <v>2172</v>
       </c>
       <c r="W14" t="s">
+        <v>81</v>
+      </c>
+      <c r="X14" t="s">
         <v>82</v>
       </c>
-      <c r="X14" t="s">
-        <v>83</v>
-      </c>
       <c r="Y14" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1658,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
         <v>275</v>
@@ -1670,19 +1673,19 @@
         <v>2354</v>
       </c>
       <c r="G15" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H15" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="H15" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="I15" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K15" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M15" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1691,10 +1694,10 @@
         <v>5</v>
       </c>
       <c r="R15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S15" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="T15">
         <v>48</v>
@@ -1706,13 +1709,13 @@
         <v>1620</v>
       </c>
       <c r="W15" t="s">
+        <v>42</v>
+      </c>
+      <c r="X15" t="s">
         <v>43</v>
       </c>
-      <c r="X15" t="s">
-        <v>44</v>
-      </c>
       <c r="Y15" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="16" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1723,7 +1726,7 @@
         <v>5</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1">
         <v>48</v>
@@ -1735,19 +1738,19 @@
         <v>1620</v>
       </c>
       <c r="G16" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="H16" s="1" t="s">
-        <v>44</v>
-      </c>
       <c r="I16" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K16" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1756,7 +1759,7 @@
         <v>6</v>
       </c>
       <c r="R16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S16">
         <v>0</v>
@@ -1771,13 +1774,13 @@
         <v>756</v>
       </c>
       <c r="W16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="X16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="Y16" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1788,7 +1791,7 @@
         <v>6</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1">
         <v>29</v>
@@ -1800,19 +1803,19 @@
         <v>756</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K17" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1821,7 +1824,7 @@
         <v>9</v>
       </c>
       <c r="R17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S17">
         <v>0</v>
@@ -1836,13 +1839,13 @@
         <v>3892</v>
       </c>
       <c r="W17" t="s">
+        <v>45</v>
+      </c>
+      <c r="X17" t="s">
         <v>46</v>
       </c>
-      <c r="X17" t="s">
-        <v>47</v>
-      </c>
       <c r="Y17" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1853,7 +1856,7 @@
         <v>9</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1">
         <v>482</v>
@@ -1865,19 +1868,19 @@
         <v>3892</v>
       </c>
       <c r="G18" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H18" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="I18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K18" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1886,7 +1889,7 @@
         <v>10</v>
       </c>
       <c r="R18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -1901,13 +1904,13 @@
         <v>6400</v>
       </c>
       <c r="W18" t="s">
+        <v>47</v>
+      </c>
+      <c r="X18" t="s">
         <v>48</v>
       </c>
-      <c r="X18" t="s">
-        <v>49</v>
-      </c>
       <c r="Y18" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1918,7 +1921,7 @@
         <v>10</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1">
         <v>793</v>
@@ -1930,19 +1933,19 @@
         <v>6400</v>
       </c>
       <c r="G19" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H19" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="H19" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="I19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K19" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M19" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1951,7 +1954,7 @@
         <v>11</v>
       </c>
       <c r="R19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S19">
         <v>0</v>
@@ -1966,13 +1969,13 @@
         <v>1818</v>
       </c>
       <c r="W19" t="s">
+        <v>49</v>
+      </c>
+      <c r="X19" t="s">
         <v>50</v>
       </c>
-      <c r="X19" t="s">
-        <v>51</v>
-      </c>
       <c r="Y19" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1983,7 +1986,7 @@
         <v>11</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1">
         <v>158</v>
@@ -1995,19 +1998,19 @@
         <v>1818</v>
       </c>
       <c r="G20" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="H20" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="H20" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="I20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M20" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2016,7 +2019,7 @@
         <v>12</v>
       </c>
       <c r="R20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S20">
         <v>0</v>
@@ -2031,13 +2034,13 @@
         <v>86</v>
       </c>
       <c r="W20" t="s">
+        <v>83</v>
+      </c>
+      <c r="X20" t="s">
         <v>84</v>
       </c>
-      <c r="X20" t="s">
-        <v>85</v>
-      </c>
       <c r="Y20" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2048,7 +2051,7 @@
         <v>12</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1">
         <v>95</v>
@@ -2060,19 +2063,19 @@
         <v>938</v>
       </c>
       <c r="G21" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="H21" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="H21" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="I21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K21" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M21" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2081,7 +2084,7 @@
         <v>13</v>
       </c>
       <c r="R21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -2096,13 +2099,13 @@
         <v>84</v>
       </c>
       <c r="W21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="X21" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="Y21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2113,7 +2116,7 @@
         <v>13</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1">
         <v>415</v>
@@ -2125,19 +2128,19 @@
         <v>1562</v>
       </c>
       <c r="G22" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="H22" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="H22" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="I22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2146,7 +2149,7 @@
         <v>15</v>
       </c>
       <c r="R22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S22">
         <v>0</v>
@@ -2161,13 +2164,13 @@
         <v>596</v>
       </c>
       <c r="W22" t="s">
+        <v>55</v>
+      </c>
+      <c r="X22" t="s">
         <v>56</v>
       </c>
-      <c r="X22" t="s">
-        <v>57</v>
-      </c>
       <c r="Y22" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -2178,7 +2181,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1">
         <v>97</v>
@@ -2190,19 +2193,19 @@
         <v>596</v>
       </c>
       <c r="G23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="H23" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="H23" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="I23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K23" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2211,7 +2214,7 @@
         <v>18</v>
       </c>
       <c r="R23" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S23">
         <v>0</v>
@@ -2226,13 +2229,13 @@
         <v>520</v>
       </c>
       <c r="W23" t="s">
+        <v>109</v>
+      </c>
+      <c r="X23" t="s">
         <v>110</v>
       </c>
-      <c r="X23" t="s">
-        <v>111</v>
-      </c>
       <c r="Y23" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="24" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -2243,7 +2246,7 @@
         <v>18</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1">
         <v>727</v>
@@ -2255,19 +2258,19 @@
         <v>4222</v>
       </c>
       <c r="G24" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="H24" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="I24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K24" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2276,7 +2279,7 @@
         <v>19</v>
       </c>
       <c r="R24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="S24">
         <v>0</v>
@@ -2291,13 +2294,13 @@
         <v>312</v>
       </c>
       <c r="W24" t="s">
+        <v>59</v>
+      </c>
+      <c r="X24" t="s">
         <v>60</v>
       </c>
-      <c r="X24" t="s">
-        <v>61</v>
-      </c>
       <c r="Y24" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -2308,7 +2311,7 @@
         <v>19</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1">
         <v>37</v>
@@ -2320,19 +2323,19 @@
         <v>312</v>
       </c>
       <c r="G25" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="H25" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="H25" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="I25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K25" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="M25" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2343,25 +2346,25 @@
         <v>25</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -2372,7 +2375,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D27" s="1">
         <v>15</v>
@@ -2384,10 +2387,10 @@
         <v>76</v>
       </c>
       <c r="G27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="28" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -2398,7 +2401,7 @@
         <v>1</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D28" s="1">
         <v>84</v>
@@ -2410,10 +2413,10 @@
         <v>626</v>
       </c>
       <c r="G28" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H28" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="29" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -2424,7 +2427,7 @@
         <v>1</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1">
         <v>164</v>
@@ -2436,10 +2439,10 @@
         <v>1420</v>
       </c>
       <c r="G29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="H29" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="30" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -2450,7 +2453,7 @@
         <v>1</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D30" s="1">
         <v>199</v>
@@ -2462,10 +2465,10 @@
         <v>1892</v>
       </c>
       <c r="G30" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>69</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="31" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -2476,7 +2479,7 @@
         <v>12</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D31" s="1">
         <v>213</v>
@@ -2488,10 +2491,10 @@
         <v>2382</v>
       </c>
       <c r="G31" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="H31" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:25" ht="12.75" x14ac:dyDescent="0.2">
@@ -2502,7 +2505,7 @@
         <v>12</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D32" s="1">
         <v>227</v>
@@ -2514,10 +2517,10 @@
         <v>2582</v>
       </c>
       <c r="G32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2528,7 +2531,7 @@
         <v>18</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D33" s="1">
         <v>67</v>
@@ -2540,10 +2543,10 @@
         <v>392</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2554,7 +2557,7 @@
         <v>18</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D34" s="1">
         <v>136</v>
@@ -2566,10 +2569,10 @@
         <v>654</v>
       </c>
       <c r="G34" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="H34" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="H34" s="1" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2580,7 +2583,7 @@
         <v>1</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D35" s="1">
         <v>335</v>
@@ -2592,10 +2595,10 @@
         <v>2888</v>
       </c>
       <c r="G35" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="H35" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="H35" s="1" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2606,7 +2609,7 @@
         <v>2</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D36" s="1">
         <v>6</v>
@@ -2618,10 +2621,10 @@
         <v>40</v>
       </c>
       <c r="G36" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="H36" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2632,7 +2635,7 @@
         <v>4</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D37" s="1">
         <v>233</v>
@@ -2644,10 +2647,10 @@
         <v>2172</v>
       </c>
       <c r="G37" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="H37" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="H37" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2658,7 +2661,7 @@
         <v>12</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D38" s="1">
         <v>14</v>
@@ -2670,10 +2673,10 @@
         <v>86</v>
       </c>
       <c r="G38" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2684,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="1">
         <v>467</v>
@@ -2696,10 +2699,10 @@
         <v>6324</v>
       </c>
       <c r="G39" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2710,7 +2713,7 @@
         <v>13</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D40" s="1">
         <v>15</v>
@@ -2722,10 +2725,10 @@
         <v>84</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2736,7 +2739,7 @@
         <v>13</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D41" s="1">
         <v>180</v>
@@ -2748,10 +2751,10 @@
         <v>768</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H41" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2762,7 +2765,7 @@
         <v>13</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D42" s="1">
         <v>392</v>
@@ -2774,10 +2777,10 @@
         <v>1468</v>
       </c>
       <c r="G42" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="H42" s="1" t="s">
         <v>90</v>
-      </c>
-      <c r="H42" s="1" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2788,7 +2791,7 @@
         <v>13</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D43" s="1">
         <v>447</v>
@@ -2800,10 +2803,10 @@
         <v>1670</v>
       </c>
       <c r="G43" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="H43" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="H43" s="1" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2814,7 +2817,7 @@
         <v>13</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D44" s="1">
         <v>477</v>
@@ -2826,10 +2829,10 @@
         <v>1770</v>
       </c>
       <c r="G44" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="H44" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="H44" s="1" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2840,7 +2843,7 @@
         <v>13</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D45" s="1">
         <v>539</v>
@@ -2852,10 +2855,10 @@
         <v>2022</v>
       </c>
       <c r="G45" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="H45" s="1" t="s">
         <v>96</v>
-      </c>
-      <c r="H45" s="1" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2866,7 +2869,7 @@
         <v>13</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D46" s="1">
         <v>635</v>
@@ -2878,10 +2881,10 @@
         <v>2368</v>
       </c>
       <c r="G46" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="H46" s="1" t="s">
         <v>98</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2892,7 +2895,7 @@
         <v>13</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D47" s="1">
         <v>672</v>
@@ -2904,10 +2907,10 @@
         <v>2508</v>
       </c>
       <c r="G47" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="H47" s="1" t="s">
         <v>100</v>
-      </c>
-      <c r="H47" s="1" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2918,7 +2921,7 @@
         <v>13</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D48" s="1">
         <v>766</v>
@@ -2930,10 +2933,10 @@
         <v>2826</v>
       </c>
       <c r="G48" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="H48" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="H48" s="1" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2944,7 +2947,7 @@
         <v>15</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D49" s="1">
         <v>101</v>
@@ -2956,10 +2959,10 @@
         <v>632</v>
       </c>
       <c r="G49" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="H49" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2970,7 +2973,7 @@
         <v>15</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D50" s="1">
         <v>389</v>
@@ -2982,10 +2985,10 @@
         <v>2422</v>
       </c>
       <c r="G50" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="H50" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="H50" s="1" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -2996,7 +2999,7 @@
         <v>15</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D51" s="1">
         <v>393</v>
@@ -3008,10 +3011,10 @@
         <v>2456</v>
       </c>
       <c r="G51" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="H51" s="1" t="s">
         <v>108</v>
-      </c>
-      <c r="H51" s="1" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3022,7 +3025,7 @@
         <v>18</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D52" s="1">
         <v>89</v>
@@ -3034,10 +3037,10 @@
         <v>520</v>
       </c>
       <c r="G52" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>110</v>
-      </c>
-      <c r="H52" s="1" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3048,7 +3051,7 @@
         <v>18</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D53" s="1">
         <v>373</v>
@@ -3060,10 +3063,10 @@
         <v>1896</v>
       </c>
       <c r="G53" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H53" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3074,7 +3077,7 @@
         <v>18</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D54" s="1">
         <v>497</v>
@@ -3086,10 +3089,10 @@
         <v>2440</v>
       </c>
       <c r="G54" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="H54" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="H54" s="1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="55" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3100,7 +3103,7 @@
         <v>18</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D55" s="1">
         <v>650</v>
@@ -3112,10 +3115,10 @@
         <v>3660</v>
       </c>
       <c r="G55" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="H55" s="1" t="s">
         <v>115</v>
-      </c>
-      <c r="H55" s="1" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3126,7 +3129,7 @@
         <v>18</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D56" s="1">
         <v>754</v>
@@ -3138,10 +3141,10 @@
         <v>4378</v>
       </c>
       <c r="G56" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="H56" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="H56" s="1" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -3152,7 +3155,7 @@
         <v>19</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D57" s="1">
         <v>284</v>
@@ -3164,10 +3167,10 @@
         <v>2328</v>
       </c>
       <c r="G57" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="H57" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="H57" s="1" t="s">
-        <v>120</v>
       </c>
     </row>
   </sheetData>
